--- a/biology/Botanique/Viola_macloskeyi/Viola_macloskeyi.xlsx
+++ b/biology/Botanique/Viola_macloskeyi/Viola_macloskeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La violette Macloskeyi, aussi appelée violette pâle est une plante vivace de la famille des Violaceae. Les Américains la nomment, en anglais Small White Violet. Cette plante pousse en Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola macloskeyi a été nommée par F.E.Lloyd en l'honneur de George Macloskie (1834-1920), un naturaliste qui occupa la chaire de biologie de l'université de Princeton en 1874.
 </t>
@@ -544,10 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Les feuilles sont de taille petite à moyenne, très vertes, en forme de cœur, portées par des tiges différentes de celles des fleurs.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont de taille petite à moyenne, très vertes, en forme de cœur, portées par des tiges différentes de celles des fleurs.
 La fleur est blanche, portée par une tige.
-Elle fleurit d'avril à juin[2].
+Elle fleurit d'avril à juin.
 Le fruit est de couleur verte.
 </t>
         </is>
@@ -579,13 +598,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition géographique et variétés
-Viola macloskeyi est présente dans toute l'Amérique du Nord, sauf au Nord en Alaska et dans l'extrême sud des États-Unis (Texas et Floride)[3]. Elle est très présente au Québec. 
+          <t>Répartition géographique et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Viola macloskeyi est présente dans toute l'Amérique du Nord, sauf au Nord en Alaska et dans l'extrême sud des États-Unis (Texas et Floride). Elle est très présente au Québec. 
 Il existe deux variétés :
 Viola macloskeyi var. macloskeyi la small white violet sur la côte ouest des États-Unis ;
-Viola macloskeyi var. pallens la smoth white violet dans toute la zone de répartition [4].
-Habitat
-Viola macloskeyi réside dans les sous-bois[5]
+Viola macloskeyi var. pallens la smoth white violet dans toute la zone de répartition .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viola_macloskeyi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_macloskeyi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition géographique, habitat et variétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viola macloskeyi réside dans les sous-bois
 </t>
         </is>
       </c>
